--- a/Bestellung_WG_Global.xlsx
+++ b/Bestellung_WG_Global.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44233379-2ECE-4137-97F0-05518E062AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F3E15C-0AA9-4475-B4A2-E8C7312AA11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{653E7662-EE17-4F48-B458-2A550F63096F}"/>
+    <workbookView xWindow="57480" yWindow="7095" windowWidth="29040" windowHeight="15720" xr2:uid="{653E7662-EE17-4F48-B458-2A550F63096F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Teil</t>
   </si>
@@ -65,6 +65,96 @@
     <t>TPPower TP5860-Sensor</t>
   </si>
   <si>
+    <t>Noctua NF-A6x25 5V PWM</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Noctua NF-A4x20 5V PWM</t>
+  </si>
+  <si>
+    <t>Bestellliste</t>
+  </si>
+  <si>
+    <t>Gens Ace 4s Lipo</t>
+  </si>
+  <si>
+    <t>ISDT K1 Lipo Charger</t>
+  </si>
+  <si>
+    <t>Add Sensor, open vents, flat spot on shaft, 8D, 30mm shaft length</t>
+  </si>
+  <si>
+    <t>BambuStore</t>
+  </si>
+  <si>
+    <t>M.2E to B Adapter</t>
+  </si>
+  <si>
+    <t>Makerfabs</t>
+  </si>
+  <si>
+    <t>BambuLab PET-CF Filament 1kg</t>
+  </si>
+  <si>
+    <t>Sunlu PLA Matte</t>
+  </si>
+  <si>
+    <t>Sunlu Store</t>
+  </si>
+  <si>
+    <t>3x PLA Matte Black, 3x PLA Matte Grey, over 6kg Bundle Deal verwenden!</t>
+  </si>
+  <si>
+    <t>Sunlu Filament Dryer</t>
+  </si>
+  <si>
+    <t>BambuLab PAHT-CF Filament 1kg</t>
+  </si>
+  <si>
+    <t>Versand</t>
+  </si>
+  <si>
+    <t>Artikelnummer</t>
+  </si>
+  <si>
+    <t>TP 5860</t>
+  </si>
+  <si>
+    <t>BambuLab TPU95A-HF Filament 1kg</t>
+  </si>
+  <si>
+    <t>MBS.MBM20102.3</t>
+  </si>
+  <si>
+    <t>PLA Matte Filament</t>
+  </si>
+  <si>
+    <t>TPU95-HF</t>
+  </si>
+  <si>
+    <t>PAHT-CF</t>
+  </si>
+  <si>
+    <t>PET-CF</t>
+  </si>
+  <si>
+    <t>NF-A6x25</t>
+  </si>
+  <si>
+    <t>NF-A4x20</t>
+  </si>
+  <si>
+    <t> B-70C-6750-4S1P-HARDCASE-14</t>
+  </si>
+  <si>
+    <t>B0919KGZ8M</t>
+  </si>
+  <si>
+    <t>Farbe: Grey</t>
+  </si>
+  <si>
     <t>Flipsky FSESC 75200-Pro</t>
   </si>
   <si>
@@ -74,94 +164,13 @@
     <t>Flipsky Antisparkswitch</t>
   </si>
   <si>
-    <t>Noctua NF-A6x25 5V PWM</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Noctua NF-A4x20 5V PWM</t>
-  </si>
-  <si>
-    <t>Bestellliste</t>
-  </si>
-  <si>
-    <t>Versandkosten inkludiert</t>
-  </si>
-  <si>
-    <t>Gens Ace 4s Lipo</t>
-  </si>
-  <si>
-    <t>ISDT K1 Lipo Charger</t>
-  </si>
-  <si>
-    <t>Add Sensor, open vents, flat spot on shaft, 8D, 30mm shaft length</t>
-  </si>
-  <si>
-    <t>BambuStore</t>
-  </si>
-  <si>
-    <t>M.2E to B Adapter</t>
-  </si>
-  <si>
-    <t>Makerfabs</t>
-  </si>
-  <si>
-    <t>BambuLab PET-CF Filament 1kg</t>
-  </si>
-  <si>
-    <t>Sunlu PLA Matte</t>
-  </si>
-  <si>
-    <t>Sunlu Store</t>
-  </si>
-  <si>
-    <t>3x PLA Matte Black, 3x PLA Matte Grey, over 6kg Bundle Deal verwenden!</t>
-  </si>
-  <si>
-    <t>Sunlu Filament Dryer</t>
-  </si>
-  <si>
-    <t>BambuLab PAHT-CF Filament 1kg</t>
-  </si>
-  <si>
-    <t>Versand</t>
-  </si>
-  <si>
-    <t>Artikelnummer</t>
-  </si>
-  <si>
-    <t>TP 5860</t>
-  </si>
-  <si>
-    <t>BambuLab TPU95A-HF Filament 1kg</t>
-  </si>
-  <si>
-    <t>MBS.MBM20102.3</t>
-  </si>
-  <si>
-    <t>PLA Matte Filament</t>
-  </si>
-  <si>
-    <t>TPU95-HF</t>
-  </si>
-  <si>
-    <t>PAHT-CF</t>
-  </si>
-  <si>
-    <t>PET-CF</t>
-  </si>
-  <si>
-    <t>NF-A6x25</t>
-  </si>
-  <si>
-    <t>NF-A4x20</t>
-  </si>
-  <si>
-    <t> B-70C-6750-4S1P-HARDCASE-14</t>
-  </si>
-  <si>
-    <t>B0919KGZ8M</t>
+    <t>Flipsky 75200 Pro</t>
+  </si>
+  <si>
+    <t> Flipsky Anti Spark Switch Smart Enhanced 300A</t>
+  </si>
+  <si>
+    <t>Versand bei  Flipsky FSESC 75200-Pro inkludiert, Style 12mm Button</t>
   </si>
 </sst>
 </file>
@@ -193,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,30 +215,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -481,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -504,32 +489,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -848,25 +818,25 @@
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="65.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="41.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="65.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -878,21 +848,21 @@
       <c r="J2" s="4"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7"/>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="9"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
-      <c r="I4" s="44"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="11"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="12" t="s">
         <v>0</v>
@@ -907,384 +877,392 @@
         <v>3</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>30</v>
+      <c r="I5" s="23" t="s">
+        <v>26</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="1">
         <v>295</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="1">
         <v>54.95</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="1">
         <f>F6*E6+G6</f>
         <v>349.95</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>186.23</v>
+      </c>
+      <c r="G7" s="1">
+        <v>41.61</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:H8" si="0">F7*E7+G7</f>
+        <v>227.83999999999997</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50.44</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>50.44</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>17.04</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>F9*E9+G9</f>
+        <v>34.08</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>16.03</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ref="H10:H18" si="1">F10*E10+G10</f>
+        <v>48.09</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>94.78</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>189.56</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>98.72</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>98.72</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>58.99</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>58.99</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>91.75</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>183.5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>101.99</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>203.98</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44.36</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>44.36</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="J16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>14.09</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>84.539999999999992</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="7"/>
+      <c r="C18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="31">
         <v>1</v>
       </c>
-      <c r="F7" s="25">
-        <v>235</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25">
-        <f t="shared" ref="H7:H18" si="0">F7*E7+G7</f>
-        <v>235</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="24">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25">
-        <v>52</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="30">
-        <v>2</v>
-      </c>
-      <c r="F9" s="31">
-        <v>17.04</v>
-      </c>
-      <c r="G9" s="31">
-        <v>0</v>
-      </c>
-      <c r="H9" s="31">
-        <f t="shared" si="0"/>
-        <v>34.08</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="30">
-        <v>3</v>
-      </c>
-      <c r="F10" s="31">
-        <v>16.03</v>
-      </c>
-      <c r="G10" s="31">
-        <v>0</v>
-      </c>
-      <c r="H10" s="31">
-        <f t="shared" si="0"/>
-        <v>48.09</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="30">
-        <v>2</v>
-      </c>
-      <c r="F11" s="31">
-        <v>94.78</v>
-      </c>
-      <c r="G11" s="31">
-        <v>0</v>
-      </c>
-      <c r="H11" s="31">
-        <f t="shared" si="0"/>
-        <v>189.56</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="31">
-        <v>98.72</v>
-      </c>
-      <c r="G12" s="31">
-        <v>0</v>
-      </c>
-      <c r="H12" s="31">
-        <f t="shared" si="0"/>
-        <v>98.72</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="35">
-        <v>1</v>
-      </c>
-      <c r="F13" s="36">
-        <v>58.99</v>
-      </c>
-      <c r="G13" s="36">
-        <v>0</v>
-      </c>
-      <c r="H13" s="36">
-        <f t="shared" si="0"/>
-        <v>58.99</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="35">
-        <v>2</v>
-      </c>
-      <c r="F14" s="36">
-        <v>91.75</v>
-      </c>
-      <c r="G14" s="36">
-        <v>0</v>
-      </c>
-      <c r="H14" s="36">
-        <f t="shared" si="0"/>
-        <v>183.5</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="35">
-        <v>2</v>
-      </c>
-      <c r="F15" s="36">
-        <v>101.99</v>
-      </c>
-      <c r="G15" s="36">
-        <v>0</v>
-      </c>
-      <c r="H15" s="36">
-        <f t="shared" si="0"/>
-        <v>203.98</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="35">
-        <v>1</v>
-      </c>
-      <c r="F16" s="36">
-        <v>44.36</v>
-      </c>
-      <c r="G16" s="36">
-        <v>0</v>
-      </c>
-      <c r="H16" s="36">
-        <f t="shared" si="0"/>
-        <v>44.36</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="35">
-        <v>6</v>
-      </c>
-      <c r="F17" s="36">
-        <v>14.09</v>
-      </c>
-      <c r="G17" s="36">
-        <v>0</v>
-      </c>
-      <c r="H17" s="36">
-        <f t="shared" si="0"/>
-        <v>84.539999999999992</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="41">
-        <v>1</v>
-      </c>
-      <c r="F18" s="42">
+      <c r="F18" s="22">
         <v>30</v>
       </c>
-      <c r="G18" s="42">
-        <v>0</v>
-      </c>
-      <c r="H18" s="42">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="43"/>
+      <c r="G18" s="22">
+        <v>5.8</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="1"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="32"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="7"/>
       <c r="F20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="46"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="17">
         <f>SUM(H6:H18)</f>
-        <v>1612.77</v>
-      </c>
-      <c r="I20" s="47"/>
+        <v>1609.85</v>
+      </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -1296,44 +1274,44 @@
       <c r="J21" s="19"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H25"/>
       <c r="I25"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H26"/>
       <c r="I26"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H27"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H29"/>
       <c r="I29"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{21F33184-8ACF-4425-B7AF-6F0BA023238C}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{E9053963-F3C0-4872-94EC-2BCA305FE5A2}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{66F7D01B-7A1C-4177-989D-E2E59C0D2DF0}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{AC3D3047-3355-4882-93FD-C725A543095F}"/>
-    <hyperlink ref="D10" r:id="rId5" xr:uid="{A8956021-ED80-4171-94D1-354CB43C474E}"/>
-    <hyperlink ref="D11" r:id="rId6" xr:uid="{25343D83-D240-4FA6-BAFE-E809D0F419B7}"/>
-    <hyperlink ref="D12" r:id="rId7" xr:uid="{948C619A-202A-4B31-A257-CD08ADB61364}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{6A289D10-82CE-44FD-9BAA-5A76BF51DF00}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{37CB498C-CFDE-4433-B88B-5E531D05F718}"/>
-    <hyperlink ref="D17" r:id="rId10" xr:uid="{84228C3B-4B3B-4C73-852B-28793934A08F}"/>
-    <hyperlink ref="D18" r:id="rId11" xr:uid="{05B1AAC8-7280-4B77-9084-990578A23F5F}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{1477DFCA-CF1E-4891-8864-08AB239035E9}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{7714BCCA-A237-49B9-9C95-5E3A40B9C02E}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{AC3D3047-3355-4882-93FD-C725A543095F}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{A8956021-ED80-4171-94D1-354CB43C474E}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{25343D83-D240-4FA6-BAFE-E809D0F419B7}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{948C619A-202A-4B31-A257-CD08ADB61364}"/>
+    <hyperlink ref="D14" r:id="rId6" xr:uid="{6A289D10-82CE-44FD-9BAA-5A76BF51DF00}"/>
+    <hyperlink ref="D16" r:id="rId7" xr:uid="{37CB498C-CFDE-4433-B88B-5E531D05F718}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{84228C3B-4B3B-4C73-852B-28793934A08F}"/>
+    <hyperlink ref="D18" r:id="rId9" xr:uid="{05B1AAC8-7280-4B77-9084-990578A23F5F}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{1477DFCA-CF1E-4891-8864-08AB239035E9}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{7714BCCA-A237-49B9-9C95-5E3A40B9C02E}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{04B842D9-60E3-4D8E-8059-311477C7E6F7}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{8A5E78AE-9638-491B-B1FC-41F1E1FE72CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
